--- a/usha_real_fans_dataset.xlsx
+++ b/usha_real_fans_dataset.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NikhilMishra\Desktop\copilot-fastapi\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373A8E1B-D7E0-400A-AF70-7F185ED3F485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Product ID</t>
   </si>
@@ -125,13 +131,28 @@
   </si>
   <si>
     <t>UklGRmYDAABXRUJQVlA4IFoDAABwKgCdASoUARQBPp1Oo00lpCMiIpO4wLATiWlu4XHbNy2Rw6gLepOTuhpnw0sruhpnw0sruhpnw0sruhpnw0sruhpnw0sruhpntKtcYky4jnQuwD1Syu6Gl6k8s5//kZzkL3zgMISyu6GmfCKXugiSvnOhn/QHHGAf7/FHQE/Fdtuhc1xbLpHcjLXZf93Dco0Z0ckFbl7SdXw0wddfXgOQAkWD9nlr25HHA0gLppIbXsqz/pxkInr9WlkYQmAcSyQo8DqzaTs6tZ7U2A2OMt5hnepdyde+2l5SEVaeE/Fv/xkXx0x/DCi/+/JbsYs86g6sRjgZwRgfvUj8TW5aSFM5OFUpb9VhLGw/gMwkaOpORItiKefnxFK8WvZOaGhubYaOpOTuhe883CHEEqVPs6GmfDSyu6ItnB6pZXdDTPhpZXdDTPhpZXdDTPhpZXdDTPhpZXdDTPhpZXdDS8AA/v6MgAAAAbSq+mWvHJzSL7MROKk1LSOFJCmkE1iZrFk7z82J8QWJCmJG5CS72jKBcsfdVE0RcgfFQDGxXpkEjg2osqykxkv9i0mARVDRmuZjp0UYF2/RCgoxZR7Nx3KhzhJp+gBTip3kYt7Z0l4OYR4heb67J6E7K6yf46bcPL3OouLQlJCbhZmg3aSev2eWAe2p+aCOYhDlTjs6XJ+l5beAnyxMFOOe4zdDGIghZj4NMm+fM5UOv5K7ym32R2g/YkINw/RuC62QEdX1ZhkWm2LG5sqhO/nrNTeql5X030c5g8xfuHlCz+QBikS13C6+kFircsgMW0etVICqqm2+gBMYJ7QdOweB8T7/Q3T7rNbsXHF0vcaTFtqZkq1fuyzsH1hlLT5MPvBKJGloSNvzW/k2QS60r5zDJ3C2/0PZ0IRGIs4UfcDEfuhzSD2YkB/eu9VN6/+cKylHbRG6l/eoHYCw7aZ0ulL5JryGf0BUBb05hGQTi7dmsfLvZR4YSsoNe7Junoj//TVWMMU/LoxJzjxvUAYLyOU+TBBXCblj92W4jl97zZca34B6vvBbStxnzl5xEP5AOzPOYFPg9dUxpaVUfUsSTaRbqUbxt3Q+x750GEj1A48fqbdIbOXdtKrpsoa9qt0gVHgXqkfuKSaKzgGFlDBw7AAAAAAAAAA=</t>
+  </si>
+  <si>
+    <t>Manufacturing Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 Year </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Year </t>
+  </si>
+  <si>
+    <t>Warranty Period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +164,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,24 +210,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -238,7 +274,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -272,6 +308,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -306,9 +343,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,14 +519,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.08984375" customWidth="1"/>
+    <col min="2" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -496,153 +541,220 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2">
+        <v>45137</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2">
+        <v>43474</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2">
+        <v>44682</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2">
+        <v>44414</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2">
+        <v>44386</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2">
+        <v>43716</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2">
+        <v>45145</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2">
+        <v>43282</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2">
+        <v>44417</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>